--- a/REGULAR/CEO/DOGELIO, RONNEL.xlsx
+++ b/REGULAR/CEO/DOGELIO, RONNEL.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/20-22/2023</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/18,19/2023</t>
   </si>
 </sst>
 </file>
@@ -2677,7 +2689,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3055,12 +3067,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A48" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,7 +3229,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.82</v>
+        <v>35.07</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3227,7 +3239,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.5</v>
+        <v>49.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4660,13 +4672,15 @@
       <c r="B75" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39">
         <v>3</v>
@@ -4682,13 +4696,15 @@
         <v>45139</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4699,32 +4715,42 @@
       <c r="A77" s="40">
         <v>45170</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="B77" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="39"/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H77" s="39">
+        <v>1</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="50">
+        <v>45195</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45200</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4735,25 +4761,33 @@
       <c r="A79" s="40">
         <v>45231</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="B79" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="39"/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H79" s="39">
+        <v>1</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="50">
+        <v>45233</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B80" s="20"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
@@ -4762,16 +4796,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="50">
+        <v>45238</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B81" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
@@ -4783,15 +4823,19 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B82" s="20"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>2</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
@@ -4801,11 +4845,13 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4823,7 +4869,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4841,7 +4887,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4859,7 +4905,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4877,7 +4923,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4895,7 +4941,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4913,7 +4959,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4931,7 +4977,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4948,7 +4994,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45536</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4964,7 +5012,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45566</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5780,20 +5830,52 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="41"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="43"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="43"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
       <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="41"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="43"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
